--- a/biology/Botanique/Mouille-bouche/Mouille-bouche.xlsx
+++ b/biology/Botanique/Mouille-bouche/Mouille-bouche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mouille-bouche ou encore Mouille-bouche d'été est une variété ancienne de poire fondante. Mouille-bouche d'automne est équivalente à Verte longue.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jansémine[1].
-Poire de Bruxelles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jansémine.
+Poire de Bruxelles.
 Mollebusch.
 Runde Mundnetzbirn.</t>
         </is>
@@ -544,10 +558,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Richelet cite déjà ces poires de mouille-bouche en 1735, dans son Dictionnaire de la langue françoise ancienne et moderne.
-Mouille-bouche a été obtenue en France, en Gironde[3].
+Mouille-bouche a été obtenue en France, en Gironde.
 </t>
         </is>
       </c>
@@ -578,14 +594,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Arbre très vigoureux et très fertile. 
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre très vigoureux et très fertile. 
 Floraison très précoce. 
-Feuillage vert, luisant[3]. 
-Fruit
-De calibre moyen, arrondi, vert, sa chair est blanche, mi-fine, juteuse 
+Feuillage vert, luisant. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mouille-bouche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mouille-bouche</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De calibre moyen, arrondi, vert, sa chair est blanche, mi-fine, juteuse 
 Bien parfumée et sucrée. 
-Date de récolte : fin juillet[3].
+Date de récolte : fin juillet.
 </t>
         </is>
       </c>
